--- a/Кейс Зефир.xlsx
+++ b/Кейс Зефир.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marinamessaround/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marinamessaround/Documents/GitHub/Case-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D8D7CE-B202-3149-8473-121D00A62417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94261F4D-D0C6-AC43-AB28-5B0109BE9545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>https://ru.files.fm/u/y2jndrsg9</t>
+  </si>
+  <si>
+    <t>Trivial</t>
   </si>
 </sst>
 </file>
@@ -330,33 +333,39 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF111111"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -568,14 +577,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -586,6 +587,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -816,7 +825,7 @@
   </sheetPr>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -829,45 +838,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="1">
         <v>45000</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
@@ -890,13 +899,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="26" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -907,9 +916,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
@@ -918,9 +927,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="6" t="s">
         <v>17</v>
       </c>
@@ -929,9 +938,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="6" t="s">
         <v>18</v>
       </c>
@@ -940,9 +949,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="6" t="s">
         <v>19</v>
       </c>
@@ -951,9 +960,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="6" t="s">
         <v>21</v>
       </c>
@@ -962,9 +971,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="6" t="s">
         <v>22</v>
       </c>
@@ -973,9 +982,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="6" t="s">
         <v>23</v>
       </c>
@@ -984,9 +993,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="6" t="s">
         <v>24</v>
       </c>
@@ -995,9 +1004,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="6" t="s">
         <v>25</v>
       </c>
@@ -1006,9 +1015,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="6" t="s">
         <v>26</v>
       </c>
@@ -1017,9 +1026,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="20" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="9" t="s">
@@ -1030,9 +1039,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="9" t="s">
         <v>29</v>
       </c>
@@ -1041,9 +1050,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="9" t="s">
         <v>30</v>
       </c>
@@ -1052,13 +1061,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -1069,9 +1078,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="10" t="s">
         <v>35</v>
       </c>
@@ -1080,9 +1089,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="10" t="s">
         <v>36</v>
       </c>
@@ -1091,9 +1100,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="10" t="s">
         <v>37</v>
       </c>
@@ -1102,9 +1111,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="10" t="s">
         <v>38</v>
       </c>
@@ -1113,9 +1122,9 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="10" t="s">
         <v>39</v>
       </c>
@@ -1124,9 +1133,9 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="10" t="s">
         <v>40</v>
       </c>
@@ -1135,9 +1144,9 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="20" t="s">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="26" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="10" t="s">
@@ -1148,9 +1157,9 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="10" t="s">
         <v>37</v>
       </c>
@@ -1159,9 +1168,9 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="10" t="s">
         <v>39</v>
       </c>
@@ -1170,9 +1179,9 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="10" t="s">
         <v>40</v>
       </c>
@@ -1181,9 +1190,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="10" t="s">
         <v>42</v>
       </c>
@@ -1192,9 +1201,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="10" t="s">
         <v>43</v>
       </c>
@@ -1203,9 +1212,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="10" t="s">
         <v>44</v>
       </c>
@@ -1214,9 +1223,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="10" t="s">
         <v>45</v>
       </c>
@@ -1226,6 +1235,10 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C27:C34"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="B20:B34"/>
+    <mergeCell ref="A20:A34"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -1234,10 +1247,6 @@
     <mergeCell ref="A6:A19"/>
     <mergeCell ref="B6:B19"/>
     <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C27:C34"/>
-    <mergeCell ref="C20:C26"/>
-    <mergeCell ref="B20:B34"/>
-    <mergeCell ref="A20:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1250,7 +1259,9 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1267,8 +1278,8 @@
       <c r="C1" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
@@ -1319,8 +1330,8 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="6" t="s">
         <v>58</v>
       </c>
@@ -1359,8 +1370,8 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="6" t="s">
         <v>64</v>
       </c>
@@ -1379,10 +1390,10 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="23">
+      <c r="A7" s="29">
         <v>3</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="26" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1399,8 +1410,8 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="6" t="s">
         <v>66</v>
       </c>
@@ -1411,7 +1422,7 @@
         <v>68</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>69</v>
@@ -1435,7 +1446,7 @@
         <v>72</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>69</v>
@@ -1448,7 +1459,7 @@
       <c r="A10" s="31">
         <v>5</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="26" t="s">
         <v>74</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1465,8 +1476,8 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="6" t="s">
         <v>75</v>
       </c>
@@ -1481,8 +1492,8 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="6" t="s">
         <v>76</v>
       </c>
@@ -1497,8 +1508,8 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="6" t="s">
         <v>78</v>
       </c>
@@ -1513,8 +1524,8 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="6" t="s">
         <v>80</v>
       </c>
@@ -1536,7 +1547,7 @@
       <c r="A15" s="31">
         <v>6</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="26" t="s">
         <v>84</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1553,8 +1564,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="6" t="s">
         <v>85</v>
       </c>
@@ -1569,8 +1580,8 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="6" t="s">
         <v>87</v>
       </c>

--- a/Кейс Зефир.xlsx
+++ b/Кейс Зефир.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marinamessaround/Documents/GitHub/Case-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94261F4D-D0C6-AC43-AB28-5B0109BE9545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A0A9DF-9D73-AF4F-8E1C-45384A4121E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,6 +577,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -587,14 +595,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -838,45 +838,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="1">
         <v>45000</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
@@ -899,13 +899,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="20" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -916,9 +916,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
@@ -927,9 +927,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="6" t="s">
         <v>17</v>
       </c>
@@ -938,9 +938,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="6" t="s">
         <v>18</v>
       </c>
@@ -949,9 +949,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="6" t="s">
         <v>19</v>
       </c>
@@ -960,9 +960,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="6" t="s">
         <v>21</v>
       </c>
@@ -971,9 +971,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="6" t="s">
         <v>22</v>
       </c>
@@ -982,9 +982,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="6" t="s">
         <v>23</v>
       </c>
@@ -993,9 +993,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="6" t="s">
         <v>24</v>
       </c>
@@ -1004,9 +1004,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="6" t="s">
         <v>25</v>
       </c>
@@ -1015,9 +1015,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="6" t="s">
         <v>26</v>
       </c>
@@ -1026,9 +1026,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="26" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="20" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="9" t="s">
@@ -1039,9 +1039,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="9" t="s">
         <v>29</v>
       </c>
@@ -1050,9 +1050,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="9" t="s">
         <v>30</v>
       </c>
@@ -1061,13 +1061,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="20" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -1078,9 +1078,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="10" t="s">
         <v>35</v>
       </c>
@@ -1089,9 +1089,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="10" t="s">
         <v>36</v>
       </c>
@@ -1100,9 +1100,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="10" t="s">
         <v>37</v>
       </c>
@@ -1111,9 +1111,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="10" t="s">
         <v>38</v>
       </c>
@@ -1122,9 +1122,9 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="10" t="s">
         <v>39</v>
       </c>
@@ -1133,9 +1133,9 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="10" t="s">
         <v>40</v>
       </c>
@@ -1144,9 +1144,9 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="26" t="s">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="10" t="s">
@@ -1157,9 +1157,9 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="10" t="s">
         <v>37</v>
       </c>
@@ -1168,9 +1168,9 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="10" t="s">
         <v>39</v>
       </c>
@@ -1179,9 +1179,9 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="10" t="s">
         <v>40</v>
       </c>
@@ -1190,9 +1190,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="10" t="s">
         <v>42</v>
       </c>
@@ -1201,9 +1201,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="10" t="s">
         <v>43</v>
       </c>
@@ -1212,9 +1212,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="10" t="s">
         <v>44</v>
       </c>
@@ -1223,9 +1223,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="10" t="s">
         <v>45</v>
       </c>
@@ -1259,7 +1259,7 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="111" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -1278,8 +1278,8 @@
       <c r="C1" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
@@ -1330,8 +1330,8 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="6" t="s">
         <v>58</v>
       </c>
@@ -1370,8 +1370,8 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="6" t="s">
         <v>64</v>
       </c>
@@ -1390,10 +1390,10 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="29">
+      <c r="A7" s="23">
         <v>3</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="20" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1410,8 +1410,8 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="6" t="s">
         <v>66</v>
       </c>
@@ -1459,7 +1459,7 @@
       <c r="A10" s="31">
         <v>5</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="20" t="s">
         <v>74</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1476,8 +1476,8 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="6" t="s">
         <v>75</v>
       </c>
@@ -1492,8 +1492,8 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="6" t="s">
         <v>76</v>
       </c>
@@ -1508,8 +1508,8 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="6" t="s">
         <v>78</v>
       </c>
@@ -1524,8 +1524,8 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="6" t="s">
         <v>80</v>
       </c>
@@ -1547,7 +1547,7 @@
       <c r="A15" s="31">
         <v>6</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="20" t="s">
         <v>84</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1564,8 +1564,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="6" t="s">
         <v>85</v>
       </c>
@@ -1580,8 +1580,8 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="6" t="s">
         <v>87</v>
       </c>
